--- a/finalProject/src/test/java/com/finalProject/testData/SearchData.xlsx
+++ b/finalProject/src/test/java/com/finalProject/testData/SearchData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <r>
       <t>Digital Storm VANQUISH 3 Custom Performance PC</t>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +163,96 @@
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -268,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -287,11 +380,20 @@
     </xf>
     <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="14" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -659,7 +761,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
